--- a/Code/Results/Cases/Case_7_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_4/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.32901104595176</v>
+        <v>14.280808563104</v>
       </c>
       <c r="C2">
-        <v>10.13509633851501</v>
+        <v>7.422275239810188</v>
       </c>
       <c r="D2">
-        <v>5.268905119083214</v>
+        <v>5.292033880305283</v>
       </c>
       <c r="E2">
-        <v>7.098127763050509</v>
+        <v>8.365743828674809</v>
       </c>
       <c r="F2">
-        <v>37.65061327635325</v>
+        <v>21.69347935158381</v>
       </c>
       <c r="G2">
-        <v>2.099088550372281</v>
+        <v>2.109799348403747</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.15785273393341</v>
+        <v>11.44274644294941</v>
       </c>
       <c r="L2">
-        <v>7.137413310248014</v>
+        <v>6.748395816946943</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.00872881947355</v>
+        <v>17.96871586543241</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.91170902363399</v>
+        <v>13.3109778143386</v>
       </c>
       <c r="C3">
-        <v>9.62563350347102</v>
+        <v>7.456654295852324</v>
       </c>
       <c r="D3">
-        <v>5.327997284922867</v>
+        <v>5.193997356772365</v>
       </c>
       <c r="E3">
-        <v>7.053209089945459</v>
+        <v>8.245709132703119</v>
       </c>
       <c r="F3">
-        <v>36.08888317702576</v>
+        <v>21.41258233096123</v>
       </c>
       <c r="G3">
-        <v>2.109488678557598</v>
+        <v>2.115023108673292</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.03038140292995</v>
+        <v>10.80245124495754</v>
       </c>
       <c r="L3">
-        <v>6.910272795219284</v>
+        <v>6.546262891526276</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.95508116188327</v>
+        <v>17.96314806083368</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.07481804908839</v>
+        <v>12.68054897353364</v>
       </c>
       <c r="C4">
-        <v>9.300425764399058</v>
+        <v>7.478945268951098</v>
       </c>
       <c r="D4">
-        <v>5.365351946130065</v>
+        <v>5.13246038191242</v>
       </c>
       <c r="E4">
-        <v>7.029266208339038</v>
+        <v>8.1765561559447</v>
       </c>
       <c r="F4">
-        <v>35.1316888416296</v>
+        <v>21.25731269055827</v>
       </c>
       <c r="G4">
-        <v>2.116019172052475</v>
+        <v>2.118330329228823</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.30204054186759</v>
+        <v>10.38936022235855</v>
       </c>
       <c r="L4">
-        <v>6.772599427140327</v>
+        <v>6.422507290311312</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.31644472251059</v>
+        <v>17.97416278697817</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.72599107225292</v>
+        <v>12.4147991475836</v>
       </c>
       <c r="C5">
-        <v>9.164801643269783</v>
+        <v>7.48832556091443</v>
       </c>
       <c r="D5">
-        <v>5.380838648767711</v>
+        <v>5.10706248971739</v>
       </c>
       <c r="E5">
-        <v>7.020393081619367</v>
+        <v>8.149524423827598</v>
       </c>
       <c r="F5">
-        <v>34.74239383545221</v>
+        <v>21.19830632869471</v>
       </c>
       <c r="G5">
-        <v>2.118719248165827</v>
+        <v>2.119703733458045</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.99603361368077</v>
+        <v>10.21606041587272</v>
       </c>
       <c r="L5">
-        <v>6.716996921121797</v>
+        <v>6.372233043310843</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.05844655198372</v>
+        <v>17.98214643675044</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.66760371056801</v>
+        <v>12.3701357304629</v>
       </c>
       <c r="C6">
-        <v>9.142095017156372</v>
+        <v>7.489901044076724</v>
       </c>
       <c r="D6">
-        <v>5.383426044096354</v>
+        <v>5.102826293440746</v>
       </c>
       <c r="E6">
-        <v>7.018972191942079</v>
+        <v>8.145105283359632</v>
       </c>
       <c r="F6">
-        <v>34.67780915957961</v>
+        <v>21.18876413822671</v>
       </c>
       <c r="G6">
-        <v>2.119170007972953</v>
+        <v>2.119933354184175</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.94466188624986</v>
+        <v>10.18698635121985</v>
       </c>
       <c r="L6">
-        <v>6.707795944723125</v>
+        <v>6.363896585719023</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.01574730857596</v>
+        <v>17.98367927108239</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.07014494243511</v>
+        <v>12.67700086621868</v>
       </c>
       <c r="C7">
-        <v>9.298609203456101</v>
+        <v>7.479070574971877</v>
       </c>
       <c r="D7">
-        <v>5.365559740675948</v>
+        <v>5.132119134765339</v>
       </c>
       <c r="E7">
-        <v>7.029143004192212</v>
+        <v>8.176186941469506</v>
       </c>
       <c r="F7">
-        <v>35.12643506834652</v>
+        <v>21.25649971875493</v>
       </c>
       <c r="G7">
-        <v>2.116055425835848</v>
+        <v>2.118348746681718</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.29795105415652</v>
+        <v>10.38704304702867</v>
       </c>
       <c r="L7">
-        <v>6.771847456333628</v>
+        <v>6.421828545611544</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.31295592183992</v>
+        <v>17.974256483759</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.84056434898424</v>
+        <v>13.95363007995345</v>
       </c>
       <c r="C8">
-        <v>9.962011476116471</v>
+        <v>7.433883318873051</v>
       </c>
       <c r="D8">
-        <v>5.289054144598748</v>
+        <v>5.258519023877896</v>
       </c>
       <c r="E8">
-        <v>7.08186610777264</v>
+        <v>8.323415525421773</v>
       </c>
       <c r="F8">
-        <v>37.11195696808531</v>
+        <v>21.59302454993678</v>
       </c>
       <c r="G8">
-        <v>2.102645997857668</v>
+        <v>2.111580146980738</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.77650456417</v>
+        <v>11.22613992692797</v>
       </c>
       <c r="L8">
-        <v>7.058751677370068</v>
+        <v>6.678666360608377</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.64379611376944</v>
+        <v>17.96371984954969</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.20294462410223</v>
+        <v>16.18239899512616</v>
       </c>
       <c r="C9">
-        <v>11.16473038339193</v>
+        <v>7.354690669124811</v>
       </c>
       <c r="D9">
-        <v>5.147838313477608</v>
+        <v>5.495067261042622</v>
       </c>
       <c r="E9">
-        <v>7.215545599464243</v>
+        <v>8.647890018598375</v>
       </c>
       <c r="F9">
-        <v>41.00782045403052</v>
+        <v>22.39143724764345</v>
       </c>
       <c r="G9">
-        <v>2.077377654432101</v>
+        <v>2.099070896561901</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.39616714867861</v>
+        <v>12.7117796261952</v>
       </c>
       <c r="L9">
-        <v>7.633728556155549</v>
+        <v>7.182367394220078</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.31403903265293</v>
+        <v>18.06353778186695</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.47419438699623</v>
+        <v>17.65610026976566</v>
       </c>
       <c r="C10">
-        <v>11.989989556216</v>
+        <v>7.302318687300846</v>
       </c>
       <c r="D10">
-        <v>5.050035337215999</v>
+        <v>5.661131128665975</v>
       </c>
       <c r="E10">
-        <v>7.334294669005789</v>
+        <v>8.907514984276478</v>
       </c>
       <c r="F10">
-        <v>43.86215704747454</v>
+        <v>23.06444271855214</v>
       </c>
       <c r="G10">
-        <v>2.059251502146306</v>
+        <v>2.090304774692814</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.15996826527975</v>
+        <v>13.7047302441722</v>
       </c>
       <c r="L10">
-        <v>8.061846893963647</v>
+        <v>7.549114699783671</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.30866402384189</v>
+        <v>18.21836746600539</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.46693272588898</v>
+        <v>18.2917852768942</v>
       </c>
       <c r="C11">
-        <v>12.3534240229872</v>
+        <v>7.279774668551505</v>
       </c>
       <c r="D11">
-        <v>5.00701964842759</v>
+        <v>5.734845919203637</v>
       </c>
       <c r="E11">
-        <v>7.393263505343353</v>
+        <v>9.030090877853102</v>
       </c>
       <c r="F11">
-        <v>45.15877853299969</v>
+        <v>23.3896140941884</v>
       </c>
       <c r="G11">
-        <v>2.051052757587001</v>
+        <v>2.086399271832251</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.92982963425186</v>
+        <v>14.13503841704589</v>
       </c>
       <c r="L11">
-        <v>8.257665977213872</v>
+        <v>7.714643297593385</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.22341622044133</v>
+        <v>18.30818151749076</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.83730101257395</v>
+        <v>18.52758017089817</v>
       </c>
       <c r="C12">
-        <v>12.48940381255496</v>
+        <v>7.27142398432721</v>
       </c>
       <c r="D12">
-        <v>4.990964134979765</v>
+        <v>5.762485324097526</v>
       </c>
       <c r="E12">
-        <v>7.416349306146272</v>
+        <v>9.077137060772554</v>
       </c>
       <c r="F12">
-        <v>45.64962499967453</v>
+        <v>23.51549213317898</v>
       </c>
       <c r="G12">
-        <v>2.047950289059096</v>
+        <v>2.084931333333746</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.21690453822381</v>
+        <v>14.29491845027017</v>
       </c>
       <c r="L12">
-        <v>8.33197231063134</v>
+        <v>7.777095507147594</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.57097162604371</v>
+        <v>18.34511317777562</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.75777837157641</v>
+        <v>18.47701549837334</v>
       </c>
       <c r="C13">
-        <v>12.46018984323022</v>
+        <v>7.273214132914404</v>
       </c>
       <c r="D13">
-        <v>4.994411188505509</v>
+        <v>5.756545081825124</v>
       </c>
       <c r="E13">
-        <v>7.411343017089974</v>
+        <v>9.066977043075928</v>
       </c>
       <c r="F13">
-        <v>45.54391651471833</v>
+        <v>23.48825996940239</v>
       </c>
       <c r="G13">
-        <v>2.048618440908741</v>
+        <v>2.085247005264063</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.15527221084051</v>
+        <v>14.26062169021628</v>
       </c>
       <c r="L13">
-        <v>8.315962103936714</v>
+        <v>7.763656130313704</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.49606550026251</v>
+        <v>18.33702726456611</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.49751297592863</v>
+        <v>18.31128258799921</v>
       </c>
       <c r="C14">
-        <v>12.36464361416837</v>
+        <v>7.279083906738841</v>
       </c>
       <c r="D14">
-        <v>5.005693928109036</v>
+        <v>5.737125400751381</v>
       </c>
       <c r="E14">
-        <v>7.395147378752194</v>
+        <v>9.033948858347012</v>
       </c>
       <c r="F14">
-        <v>45.19916289775401</v>
+        <v>23.39991515431533</v>
       </c>
       <c r="G14">
-        <v>2.050797499200829</v>
+        <v>2.086278288370626</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.95353540314867</v>
+        <v>14.14825326786213</v>
       </c>
       <c r="L14">
-        <v>8.263776065010587</v>
+        <v>7.719786103177229</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.25198577939803</v>
+        <v>18.3111606073861</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.33737707694312</v>
+        <v>18.20912697985408</v>
       </c>
       <c r="C15">
-        <v>12.30590721011321</v>
+        <v>7.282703636184136</v>
       </c>
       <c r="D15">
-        <v>5.01263608018365</v>
+        <v>5.725194167241885</v>
       </c>
       <c r="E15">
-        <v>7.385326855128688</v>
+        <v>9.013799707365704</v>
       </c>
       <c r="F15">
-        <v>44.98797604622855</v>
+        <v>23.34615876381295</v>
       </c>
       <c r="G15">
-        <v>2.052132379870772</v>
+        <v>2.086911384579327</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.8293925259641</v>
+        <v>14.07902512862489</v>
       </c>
       <c r="L15">
-        <v>8.231830913606728</v>
+        <v>7.692883371528982</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.10263489395392</v>
+        <v>18.29570086968744</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.40852367414894</v>
+        <v>17.61386390706393</v>
       </c>
       <c r="C16">
-        <v>11.96600339640595</v>
+        <v>7.303817930937565</v>
       </c>
       <c r="D16">
-        <v>5.052877916433104</v>
+        <v>5.656275861443045</v>
       </c>
       <c r="E16">
-        <v>7.330544168555586</v>
+        <v>8.899593160476806</v>
       </c>
       <c r="F16">
-        <v>43.77738971812246</v>
+        <v>23.04357545521139</v>
       </c>
       <c r="G16">
-        <v>2.059787879318854</v>
+        <v>2.090561593288844</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.10902017531794</v>
+        <v>13.67617864048943</v>
       </c>
       <c r="L16">
-        <v>8.04907083727287</v>
+        <v>7.538266988596387</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.24903806198627</v>
+        <v>18.21289942426296</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.82851155370442</v>
+        <v>17.23984566374937</v>
       </c>
       <c r="C17">
-        <v>11.75446430764345</v>
+        <v>7.317100208475269</v>
       </c>
       <c r="D17">
-        <v>5.077956515317068</v>
+        <v>5.613519609301862</v>
       </c>
       <c r="E17">
-        <v>7.298234381742221</v>
+        <v>8.83066653099536</v>
       </c>
       <c r="F17">
-        <v>43.03430868262976</v>
+        <v>22.86282822816091</v>
       </c>
       <c r="G17">
-        <v>2.064493251605656</v>
+        <v>2.092821366043569</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.6589191918546</v>
+        <v>13.42356977599204</v>
       </c>
       <c r="L17">
-        <v>7.937222499564345</v>
+        <v>7.443048288277176</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.72732221878189</v>
+        <v>18.16716361973221</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.4910777589832</v>
+        <v>17.02144920948224</v>
       </c>
       <c r="C18">
-        <v>11.63165919311978</v>
+        <v>7.324860181505312</v>
       </c>
       <c r="D18">
-        <v>5.092518368569968</v>
+        <v>5.588755876314512</v>
       </c>
       <c r="E18">
-        <v>7.280113659602004</v>
+        <v>8.791443419770676</v>
       </c>
       <c r="F18">
-        <v>42.60672311059366</v>
+        <v>22.76065710577751</v>
       </c>
       <c r="G18">
-        <v>2.067204377273047</v>
+        <v>2.09412892256552</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.39695951327815</v>
+        <v>13.27626153814676</v>
       </c>
       <c r="L18">
-        <v>7.872989760937878</v>
+        <v>7.388160137610053</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.42793045323275</v>
+        <v>18.1426739994266</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.37616400163549</v>
+        <v>16.94694014399181</v>
       </c>
       <c r="C19">
-        <v>11.58988276830747</v>
+        <v>7.327508185973835</v>
       </c>
       <c r="D19">
-        <v>5.09747177435068</v>
+        <v>5.580342231288561</v>
       </c>
       <c r="E19">
-        <v>7.27405654469151</v>
+        <v>8.778235990209117</v>
       </c>
       <c r="F19">
-        <v>42.46191664750442</v>
+        <v>22.7263708314737</v>
       </c>
       <c r="G19">
-        <v>2.068123257491197</v>
+        <v>2.094573002143671</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.30773030676409</v>
+        <v>13.22603943791482</v>
       </c>
       <c r="L19">
-        <v>7.851258951957198</v>
+        <v>7.369556577346216</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.32667749096942</v>
+        <v>18.13469007689657</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.89064906338125</v>
+        <v>17.27999861539835</v>
       </c>
       <c r="C20">
-        <v>11.77709980808549</v>
+        <v>7.315673816103622</v>
       </c>
       <c r="D20">
-        <v>5.075272506206704</v>
+        <v>5.618088920934007</v>
       </c>
       <c r="E20">
-        <v>7.301625588663178</v>
+        <v>8.83796034788935</v>
       </c>
       <c r="F20">
-        <v>43.11342963356071</v>
+        <v>22.88188376206953</v>
       </c>
       <c r="G20">
-        <v>2.063991899218038</v>
+        <v>2.092580008509887</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.70714979617842</v>
+        <v>13.45066886270024</v>
       </c>
       <c r="L20">
-        <v>7.94911869194847</v>
+        <v>7.453197315933702</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.78278835725082</v>
+        <v>18.17184330394639</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.5741078981475</v>
+        <v>18.36009549384448</v>
       </c>
       <c r="C21">
-        <v>12.39275178413336</v>
+        <v>7.277354738643951</v>
       </c>
       <c r="D21">
-        <v>5.002373376691778</v>
+        <v>5.742836978399531</v>
       </c>
       <c r="E21">
-        <v>7.399883553442689</v>
+        <v>9.043633061933747</v>
       </c>
       <c r="F21">
-        <v>45.30042823889161</v>
+        <v>23.42578968452432</v>
       </c>
       <c r="G21">
-        <v>2.05015743575441</v>
+        <v>2.085975084185703</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.01290943503728</v>
+        <v>14.18134177393962</v>
       </c>
       <c r="L21">
-        <v>8.279100116731723</v>
+        <v>7.732678335105159</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.32364533340235</v>
+        <v>18.31867794077993</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.6420826374219</v>
+        <v>19.0373255319528</v>
       </c>
       <c r="C22">
-        <v>12.78557833582266</v>
+        <v>7.253397802150069</v>
       </c>
       <c r="D22">
-        <v>4.956105209310847</v>
+        <v>5.822760667130723</v>
       </c>
       <c r="E22">
-        <v>7.468528518032688</v>
+        <v>9.181714665099113</v>
       </c>
       <c r="F22">
-        <v>46.72897703334548</v>
+        <v>23.79725216833782</v>
       </c>
       <c r="G22">
-        <v>2.041126203352359</v>
+        <v>2.081722017043058</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.84045207800215</v>
+        <v>14.64100278517046</v>
       </c>
       <c r="L22">
-        <v>8.495669934920132</v>
+        <v>7.913980529511955</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.33753664917797</v>
+        <v>18.43172915841595</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.07494167822089</v>
+        <v>18.67847656892831</v>
       </c>
       <c r="C23">
-        <v>12.57676121607903</v>
+        <v>7.266083841676942</v>
       </c>
       <c r="D23">
-        <v>4.98066498379254</v>
+        <v>5.780254502240457</v>
       </c>
       <c r="E23">
-        <v>7.431470627964834</v>
+        <v>9.1076870985928</v>
       </c>
       <c r="F23">
-        <v>45.96654147927933</v>
+        <v>23.59753077429066</v>
       </c>
       <c r="G23">
-        <v>2.045947044798207</v>
+        <v>2.083986427897422</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.40106319801081</v>
+        <v>14.39730431814576</v>
       </c>
       <c r="L23">
-        <v>8.379995461320012</v>
+        <v>7.817352303094823</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.79572542306316</v>
+        <v>18.36978460358354</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.8625691021275</v>
+        <v>17.26185596268171</v>
       </c>
       <c r="C24">
-        <v>11.76687000578488</v>
+        <v>7.316318302598441</v>
       </c>
       <c r="D24">
-        <v>5.076485500273476</v>
+        <v>5.616023702973512</v>
       </c>
       <c r="E24">
-        <v>7.30009101128095</v>
+        <v>8.834661554709831</v>
       </c>
       <c r="F24">
-        <v>43.07766023695123</v>
+        <v>22.87326332716709</v>
       </c>
       <c r="G24">
-        <v>2.064218541782661</v>
+        <v>2.092689100076608</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.68535469425941</v>
+        <v>13.43842384493474</v>
       </c>
       <c r="L24">
-        <v>7.943740204063376</v>
+        <v>7.448609390939629</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.75771041040058</v>
+        <v>18.16972200827299</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.32911818433887</v>
+        <v>15.6084904614527</v>
       </c>
       <c r="C25">
-        <v>10.84978621741718</v>
+        <v>7.375099739804527</v>
       </c>
       <c r="D25">
-        <v>5.1850476046469</v>
+        <v>5.432375954454964</v>
       </c>
       <c r="E25">
-        <v>7.175931635579526</v>
+        <v>8.556334821586677</v>
       </c>
       <c r="F25">
-        <v>39.95491642403861</v>
+        <v>22.16037476251996</v>
       </c>
       <c r="G25">
-        <v>2.084121606117418</v>
+        <v>2.10237731702354</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.71647974153976</v>
+        <v>12.3271447363777</v>
       </c>
       <c r="L25">
-        <v>7.477085193929947</v>
+        <v>7.046464743688047</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.58578792152513</v>
+        <v>18.02279870296875</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.280808563104</v>
+        <v>14.32466818895037</v>
       </c>
       <c r="C2">
-        <v>7.422275239810188</v>
+        <v>7.823913821314614</v>
       </c>
       <c r="D2">
-        <v>5.292033880305283</v>
+        <v>5.492776406114529</v>
       </c>
       <c r="E2">
-        <v>8.365743828674809</v>
+        <v>9.054212960474938</v>
       </c>
       <c r="F2">
-        <v>21.69347935158381</v>
+        <v>16.90284116642607</v>
       </c>
       <c r="G2">
-        <v>2.109799348403747</v>
+        <v>20.5637954911226</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.875599980173999</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.752061377253623</v>
       </c>
       <c r="K2">
-        <v>11.44274644294941</v>
+        <v>14.30169302146772</v>
       </c>
       <c r="L2">
-        <v>6.748395816946943</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.95621459858471</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.432917700455242</v>
       </c>
       <c r="O2">
-        <v>17.96871586543241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.96968808090043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.3109778143386</v>
+        <v>13.41017023300064</v>
       </c>
       <c r="C3">
-        <v>7.456654295852324</v>
+        <v>7.742750630454666</v>
       </c>
       <c r="D3">
-        <v>5.193997356772365</v>
+        <v>5.273879253083277</v>
       </c>
       <c r="E3">
-        <v>8.245709132703119</v>
+        <v>8.823777478758119</v>
       </c>
       <c r="F3">
-        <v>21.41258233096123</v>
+        <v>16.7296303099757</v>
       </c>
       <c r="G3">
-        <v>2.115023108673292</v>
+        <v>20.44402528319098</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.066408510808058</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.816810304464655</v>
       </c>
       <c r="K3">
-        <v>10.80245124495754</v>
+        <v>14.44011661006107</v>
       </c>
       <c r="L3">
-        <v>6.546262891526276</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.35234660289562</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.155420215394812</v>
       </c>
       <c r="O3">
-        <v>17.96314806083368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.02818840501879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68054897353364</v>
+        <v>12.81523848290806</v>
       </c>
       <c r="C4">
-        <v>7.478945268951098</v>
+        <v>7.692055858271325</v>
       </c>
       <c r="D4">
-        <v>5.13246038191242</v>
+        <v>5.133893423993905</v>
       </c>
       <c r="E4">
-        <v>8.1765561559447</v>
+        <v>8.678893665920988</v>
       </c>
       <c r="F4">
-        <v>21.25731269055827</v>
+        <v>16.63485889235095</v>
       </c>
       <c r="G4">
-        <v>2.118330329228823</v>
+        <v>20.38876524263517</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.187812906935386</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.860379075222417</v>
       </c>
       <c r="K4">
-        <v>10.38936022235855</v>
+        <v>14.5322221335836</v>
       </c>
       <c r="L4">
-        <v>6.422507290311312</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.96380772559367</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.979291967876771</v>
       </c>
       <c r="O4">
-        <v>17.97416278697817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.07281684625521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.4147991475836</v>
+        <v>12.56439329351745</v>
       </c>
       <c r="C5">
-        <v>7.48832556091443</v>
+        <v>7.671186913345797</v>
       </c>
       <c r="D5">
-        <v>5.10706248971739</v>
+        <v>5.075487910915955</v>
       </c>
       <c r="E5">
-        <v>8.149524423827598</v>
+        <v>8.619043716277035</v>
       </c>
       <c r="F5">
-        <v>21.19830632869471</v>
+        <v>16.59911861043945</v>
       </c>
       <c r="G5">
-        <v>2.119703733458045</v>
+        <v>20.37071147769155</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.238367675197733</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.879068574464307</v>
       </c>
       <c r="K5">
-        <v>10.21606041587272</v>
+        <v>14.5714930014518</v>
       </c>
       <c r="L5">
-        <v>6.372233043310843</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.8011124094413</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.906143319009179</v>
       </c>
       <c r="O5">
-        <v>17.98214643675044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.09311962584366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.3701357304629</v>
+        <v>12.52223311981006</v>
       </c>
       <c r="C6">
-        <v>7.489901044076724</v>
+        <v>7.667709111300534</v>
       </c>
       <c r="D6">
-        <v>5.102826293440746</v>
+        <v>5.065708965287312</v>
       </c>
       <c r="E6">
-        <v>8.145105283359632</v>
+        <v>8.609058222597012</v>
       </c>
       <c r="F6">
-        <v>21.18876413822671</v>
+        <v>16.59335679075821</v>
       </c>
       <c r="G6">
-        <v>2.119933354184175</v>
+        <v>20.36797930500412</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.246827963234992</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.882227739660575</v>
       </c>
       <c r="K6">
-        <v>10.18698635121985</v>
+        <v>14.57811736751218</v>
       </c>
       <c r="L6">
-        <v>6.363896585719023</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.77383693671914</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.893916189032264</v>
       </c>
       <c r="O6">
-        <v>17.98367927108239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.09661658082891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.67700086621868</v>
+        <v>12.81188952563932</v>
       </c>
       <c r="C7">
-        <v>7.479070574971877</v>
+        <v>7.691775256310436</v>
       </c>
       <c r="D7">
-        <v>5.132119134765339</v>
+        <v>5.133111191947936</v>
       </c>
       <c r="E7">
-        <v>8.176186941469506</v>
+        <v>8.678089720583463</v>
       </c>
       <c r="F7">
-        <v>21.25649971875493</v>
+        <v>16.63436527484678</v>
       </c>
       <c r="G7">
-        <v>2.118348746681718</v>
+        <v>20.38850386522388</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.188490309676045</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.860627373760297</v>
       </c>
       <c r="K7">
-        <v>10.38704304702867</v>
+        <v>14.53274478656427</v>
       </c>
       <c r="L7">
-        <v>6.421828545611544</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.96163107106619</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.978310928996753</v>
       </c>
       <c r="O7">
-        <v>17.974256483759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.07308218399297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.95363007995345</v>
+        <v>14.01628409204417</v>
       </c>
       <c r="C8">
-        <v>7.433883318873051</v>
+        <v>7.79611071860921</v>
       </c>
       <c r="D8">
-        <v>5.258519023877896</v>
+        <v>5.418483424396676</v>
       </c>
       <c r="E8">
-        <v>8.323415525421773</v>
+        <v>8.975489642398042</v>
       </c>
       <c r="F8">
-        <v>21.59302454993678</v>
+        <v>16.84069768146637</v>
       </c>
       <c r="G8">
-        <v>2.111580146980738</v>
+        <v>20.51862920332678</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.94051752423951</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.773580787050173</v>
       </c>
       <c r="K8">
-        <v>11.22613992692797</v>
+        <v>14.34791332656502</v>
       </c>
       <c r="L8">
-        <v>6.678666360608377</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.75174319387201</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.338467678435773</v>
       </c>
       <c r="O8">
-        <v>17.96371984954969</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.988006759972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.18239899512616</v>
+        <v>16.11331068811223</v>
       </c>
       <c r="C9">
-        <v>7.354690669124811</v>
+        <v>7.993651732376013</v>
       </c>
       <c r="D9">
-        <v>5.495067261042622</v>
+        <v>5.932201404048111</v>
       </c>
       <c r="E9">
-        <v>8.647890018598375</v>
+        <v>9.529937828411168</v>
       </c>
       <c r="F9">
-        <v>22.39143724764345</v>
+        <v>17.33822963087118</v>
       </c>
       <c r="G9">
-        <v>2.099070896561901</v>
+        <v>20.92412464327937</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.632051816372325</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.634262572545904</v>
       </c>
       <c r="K9">
-        <v>12.7117796261952</v>
+        <v>14.04435708844768</v>
       </c>
       <c r="L9">
-        <v>7.182367394220078</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.15665757208144</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.996534869011869</v>
       </c>
       <c r="O9">
-        <v>18.06353778186695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.89363056743328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.65610026976566</v>
+        <v>17.47136362853362</v>
       </c>
       <c r="C10">
-        <v>7.302318687300846</v>
+        <v>8.175373943608951</v>
       </c>
       <c r="D10">
-        <v>5.661131128665975</v>
+        <v>6.301284560964336</v>
       </c>
       <c r="E10">
-        <v>8.907514984276478</v>
+        <v>9.75337972145538</v>
       </c>
       <c r="F10">
-        <v>23.06444271855214</v>
+        <v>17.66205742587678</v>
       </c>
       <c r="G10">
-        <v>2.090304774692814</v>
+        <v>21.1462935265905</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.93018560080384</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.525020350806717</v>
       </c>
       <c r="K10">
-        <v>13.7047302441722</v>
+        <v>13.79100475301275</v>
       </c>
       <c r="L10">
-        <v>7.549114699783671</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.11246234993274</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.318645766744369</v>
       </c>
       <c r="O10">
-        <v>18.21836746600539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.80201222382356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.2917852768942</v>
+        <v>17.86594357726455</v>
       </c>
       <c r="C11">
-        <v>7.279774668551505</v>
+        <v>8.663932207334032</v>
       </c>
       <c r="D11">
-        <v>5.734845919203637</v>
+        <v>6.649455185239963</v>
       </c>
       <c r="E11">
-        <v>9.030090877853102</v>
+        <v>8.55188405469517</v>
       </c>
       <c r="F11">
-        <v>23.3896140941884</v>
+        <v>16.96028800341883</v>
       </c>
       <c r="G11">
-        <v>2.086399271832251</v>
+        <v>19.76628532810541</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.83163030635025</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.241387672070688</v>
       </c>
       <c r="K11">
-        <v>14.13503841704589</v>
+        <v>13.0947244926501</v>
       </c>
       <c r="L11">
-        <v>7.714643297593385</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.66077207878482</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.380097024233326</v>
       </c>
       <c r="O11">
-        <v>18.30818151749076</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.15706705091039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.52758017089817</v>
+        <v>17.92298364470246</v>
       </c>
       <c r="C12">
-        <v>7.27142398432721</v>
+        <v>9.099766063008772</v>
       </c>
       <c r="D12">
-        <v>5.762485324097526</v>
+        <v>6.872732594300541</v>
       </c>
       <c r="E12">
-        <v>9.077137060772554</v>
+        <v>7.690596269429101</v>
       </c>
       <c r="F12">
-        <v>23.51549213317898</v>
+        <v>16.28211223979999</v>
       </c>
       <c r="G12">
-        <v>2.084931333333746</v>
+        <v>18.53495941061222</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.114477594099649</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.024688580994178</v>
       </c>
       <c r="K12">
-        <v>14.29491845027017</v>
+        <v>12.58108657230357</v>
       </c>
       <c r="L12">
-        <v>7.777095507147594</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.93251068048057</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.566998998807621</v>
       </c>
       <c r="O12">
-        <v>18.34511317777562</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.62904570666527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.47701549837334</v>
+        <v>17.72589692382252</v>
       </c>
       <c r="C13">
-        <v>7.273214132914404</v>
+        <v>9.512063768818784</v>
       </c>
       <c r="D13">
-        <v>5.756545081825124</v>
+        <v>7.017570690565857</v>
       </c>
       <c r="E13">
-        <v>9.066977043075928</v>
+        <v>7.102243690954337</v>
       </c>
       <c r="F13">
-        <v>23.48825996940239</v>
+        <v>15.57146005688108</v>
       </c>
       <c r="G13">
-        <v>2.085247005264063</v>
+        <v>17.33499063443381</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.453857574382051</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.847329706760314</v>
       </c>
       <c r="K13">
-        <v>14.26062169021628</v>
+        <v>12.18403693431715</v>
       </c>
       <c r="L13">
-        <v>7.763656130313704</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.01467264657371</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.810329439487438</v>
       </c>
       <c r="O13">
-        <v>18.33702726456611</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.16062472819372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.31128258799921</v>
+        <v>17.47025390989252</v>
       </c>
       <c r="C14">
-        <v>7.279083906738841</v>
+        <v>9.793564667860814</v>
       </c>
       <c r="D14">
-        <v>5.737125400751381</v>
+        <v>7.085065945232534</v>
       </c>
       <c r="E14">
-        <v>9.033948858347012</v>
+        <v>6.889818125201058</v>
       </c>
       <c r="F14">
-        <v>23.39991515431533</v>
+        <v>15.05854662594094</v>
       </c>
       <c r="G14">
-        <v>2.086278288370626</v>
+        <v>16.51587057055788</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.462808499501227</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.742980179495156</v>
       </c>
       <c r="K14">
-        <v>14.14825326786213</v>
+        <v>11.96882773088014</v>
       </c>
       <c r="L14">
-        <v>7.719786103177229</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.98753185558326</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.332425366154518</v>
       </c>
       <c r="O14">
-        <v>18.3111606073861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.8649610769254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.20912697985408</v>
+        <v>17.35241978298666</v>
       </c>
       <c r="C15">
-        <v>7.282703636184136</v>
+        <v>9.849413504843815</v>
       </c>
       <c r="D15">
-        <v>5.725194167241885</v>
+        <v>7.084295198090344</v>
       </c>
       <c r="E15">
-        <v>9.013799707365704</v>
+        <v>6.866908724244163</v>
       </c>
       <c r="F15">
-        <v>23.34615876381295</v>
+        <v>14.9292005466849</v>
       </c>
       <c r="G15">
-        <v>2.086911384579327</v>
+        <v>16.32765601013749</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.700920851855015</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.726320341807812</v>
       </c>
       <c r="K15">
-        <v>14.07902512862489</v>
+        <v>11.93936446049505</v>
       </c>
       <c r="L15">
-        <v>7.692883371528982</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.93974337042592</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.223226975783763</v>
       </c>
       <c r="O15">
-        <v>18.29570086968744</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.80705733374259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.61386390706393</v>
+        <v>16.82290807538445</v>
       </c>
       <c r="C16">
-        <v>7.303817930937565</v>
+        <v>9.685217913943848</v>
       </c>
       <c r="D16">
-        <v>5.656275861443045</v>
+        <v>6.90967123043289</v>
       </c>
       <c r="E16">
-        <v>8.899593160476806</v>
+        <v>6.869121634890016</v>
       </c>
       <c r="F16">
-        <v>23.04357545521139</v>
+        <v>14.91365854800986</v>
       </c>
       <c r="G16">
-        <v>2.090561593288844</v>
+        <v>16.45790344086135</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.488119531578479</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.810182209484346</v>
       </c>
       <c r="K16">
-        <v>13.67617864048943</v>
+        <v>12.13595602235614</v>
       </c>
       <c r="L16">
-        <v>7.538266988596387</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.5357158273808</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.210426742407732</v>
       </c>
       <c r="O16">
-        <v>18.21289942426296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.94316338921444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.23984566374937</v>
+        <v>16.55061477411506</v>
       </c>
       <c r="C17">
-        <v>7.317100208475269</v>
+        <v>9.403075172059184</v>
       </c>
       <c r="D17">
-        <v>5.613519609301862</v>
+        <v>6.735792813006183</v>
       </c>
       <c r="E17">
-        <v>8.83066653099536</v>
+        <v>6.949338523459122</v>
       </c>
       <c r="F17">
-        <v>22.86282822816091</v>
+        <v>15.18029470447946</v>
       </c>
       <c r="G17">
-        <v>2.092821366043569</v>
+        <v>16.99421568573699</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.743915004547997</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.929283189533416</v>
       </c>
       <c r="K17">
-        <v>13.42356977599204</v>
+        <v>12.39571004230559</v>
       </c>
       <c r="L17">
-        <v>7.443048288277176</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.23451353678442</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.444452733511537</v>
       </c>
       <c r="O17">
-        <v>18.16716361973221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.2027334325441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.02144920948224</v>
+        <v>16.47748416708021</v>
       </c>
       <c r="C18">
-        <v>7.324860181505312</v>
+        <v>9.009734556458538</v>
       </c>
       <c r="D18">
-        <v>5.588755876314512</v>
+        <v>6.546226435683258</v>
       </c>
       <c r="E18">
-        <v>8.791443419770676</v>
+        <v>7.290283396401332</v>
       </c>
       <c r="F18">
-        <v>22.76065710577751</v>
+        <v>15.71343509004624</v>
       </c>
       <c r="G18">
-        <v>2.09412892256552</v>
+        <v>17.94030690117598</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.475714315217208</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.093571471463033</v>
       </c>
       <c r="K18">
-        <v>13.27626153814676</v>
+        <v>12.75662013761765</v>
       </c>
       <c r="L18">
-        <v>7.388160137610053</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.99394259335577</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.983052347644191</v>
       </c>
       <c r="O18">
-        <v>18.1426739994266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.60092365304891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.94694014399181</v>
+        <v>16.57192596319558</v>
       </c>
       <c r="C19">
-        <v>7.327508185973835</v>
+        <v>8.592771311402982</v>
       </c>
       <c r="D19">
-        <v>5.580342231288561</v>
+        <v>6.362487974359097</v>
       </c>
       <c r="E19">
-        <v>8.778235990209117</v>
+        <v>8.043045174075514</v>
       </c>
       <c r="F19">
-        <v>22.7263708314737</v>
+        <v>16.41804290196238</v>
       </c>
       <c r="G19">
-        <v>2.094573002143671</v>
+        <v>19.15729980538845</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>2.955340412505024</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.286071469151272</v>
       </c>
       <c r="K19">
-        <v>13.22603943791482</v>
+        <v>13.1999757550134</v>
       </c>
       <c r="L19">
-        <v>7.369556577346216</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.82501290371285</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.793781690769856</v>
       </c>
       <c r="O19">
-        <v>18.13469007689657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.0908796196167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.27999861539835</v>
+        <v>17.12429700050194</v>
       </c>
       <c r="C20">
-        <v>7.315673816103622</v>
+        <v>8.129546441858349</v>
       </c>
       <c r="D20">
-        <v>5.618088920934007</v>
+        <v>6.207510078624186</v>
       </c>
       <c r="E20">
-        <v>8.83796034788935</v>
+        <v>9.688004574640754</v>
       </c>
       <c r="F20">
-        <v>22.88188376206953</v>
+        <v>17.56856104243612</v>
       </c>
       <c r="G20">
-        <v>2.092580008509887</v>
+        <v>21.07319600916991</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.851125322047572</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.551070621801133</v>
       </c>
       <c r="K20">
-        <v>13.45066886270024</v>
+        <v>13.85180310060162</v>
       </c>
       <c r="L20">
-        <v>7.453197315933702</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.86859724341944</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.229745368485496</v>
       </c>
       <c r="O20">
-        <v>18.17184330394639</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.8195332404448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.36009549384448</v>
+        <v>18.1507793007706</v>
       </c>
       <c r="C21">
-        <v>7.277354738643951</v>
+        <v>8.203942467771821</v>
       </c>
       <c r="D21">
-        <v>5.742836978399531</v>
+        <v>6.447644858929066</v>
       </c>
       <c r="E21">
-        <v>9.043633061933747</v>
+        <v>10.10788329743164</v>
       </c>
       <c r="F21">
-        <v>23.42578968452432</v>
+        <v>17.98905395433578</v>
       </c>
       <c r="G21">
-        <v>2.085975084185703</v>
+        <v>21.5453374834546</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.088299114662642</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.517109854663117</v>
       </c>
       <c r="K21">
-        <v>14.18134177393962</v>
+        <v>13.77907918554841</v>
       </c>
       <c r="L21">
-        <v>7.732678335105159</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.54846268541221</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.666736330598823</v>
       </c>
       <c r="O21">
-        <v>18.31867794077993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.87609241048456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.0373255319528</v>
+        <v>18.78139376507271</v>
       </c>
       <c r="C22">
-        <v>7.253397802150069</v>
+        <v>8.272533657884102</v>
       </c>
       <c r="D22">
-        <v>5.822760667130723</v>
+        <v>6.609838858166407</v>
       </c>
       <c r="E22">
-        <v>9.181714665099113</v>
+        <v>10.29375760260754</v>
       </c>
       <c r="F22">
-        <v>23.79725216833782</v>
+        <v>18.22349330885787</v>
       </c>
       <c r="G22">
-        <v>2.081722017043058</v>
+        <v>21.78417605583319</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.23499394668074</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.485152587041446</v>
       </c>
       <c r="K22">
-        <v>14.64100278517046</v>
+        <v>13.70441254151399</v>
       </c>
       <c r="L22">
-        <v>7.913980529511955</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.98343344286606</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.879328497283383</v>
       </c>
       <c r="O22">
-        <v>18.43172915841595</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.88708477317011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.67847656892831</v>
+        <v>18.44744125062897</v>
       </c>
       <c r="C23">
-        <v>7.266083841676942</v>
+        <v>8.236008147671068</v>
       </c>
       <c r="D23">
-        <v>5.780254502240457</v>
+        <v>6.523804373035938</v>
       </c>
       <c r="E23">
-        <v>9.1076870985928</v>
+        <v>10.19493492103027</v>
       </c>
       <c r="F23">
-        <v>23.59753077429066</v>
+        <v>18.09741656946819</v>
       </c>
       <c r="G23">
-        <v>2.083986427897422</v>
+        <v>21.6549302330203</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.156981181451424</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.501802035228636</v>
       </c>
       <c r="K23">
-        <v>14.39730431814576</v>
+        <v>13.74346780247963</v>
       </c>
       <c r="L23">
-        <v>7.817352303094823</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.75286707776962</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.76646756395701</v>
       </c>
       <c r="O23">
-        <v>18.36978460358354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.88024999483349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.26185596268171</v>
+        <v>17.12496484106214</v>
       </c>
       <c r="C24">
-        <v>7.316318302598441</v>
+        <v>8.095871175951515</v>
       </c>
       <c r="D24">
-        <v>5.616023702973512</v>
+        <v>6.186377139350125</v>
       </c>
       <c r="E24">
-        <v>8.834661554709831</v>
+        <v>9.812418713206505</v>
       </c>
       <c r="F24">
-        <v>22.87326332716709</v>
+        <v>17.64090144488662</v>
       </c>
       <c r="G24">
-        <v>2.092689100076608</v>
+        <v>21.20404415672876</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.855247400937929</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.573590300710396</v>
       </c>
       <c r="K24">
-        <v>13.43842384493474</v>
+        <v>13.90839732921192</v>
       </c>
       <c r="L24">
-        <v>7.448609390939629</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.84492496056711</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.325933371049874</v>
       </c>
       <c r="O24">
-        <v>18.16972200827299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.87514179070256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.6084904614527</v>
+        <v>15.57426615686404</v>
       </c>
       <c r="C25">
-        <v>7.375099739804527</v>
+        <v>7.940997690055354</v>
       </c>
       <c r="D25">
-        <v>5.432375954454964</v>
+        <v>5.79834172641837</v>
       </c>
       <c r="E25">
-        <v>8.556334821586677</v>
+        <v>9.383260430374992</v>
       </c>
       <c r="F25">
-        <v>22.16037476251996</v>
+        <v>17.19356851636764</v>
       </c>
       <c r="G25">
-        <v>2.10237731702354</v>
+        <v>20.79763267112033</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.606466408457502</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.668428336557159</v>
       </c>
       <c r="K25">
-        <v>12.3271447363777</v>
+        <v>14.11981199614035</v>
       </c>
       <c r="L25">
-        <v>7.046464743688047</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.7924876087685</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.824004609755251</v>
       </c>
       <c r="O25">
-        <v>18.02279870296875</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.91092665419269</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.32466818895037</v>
+        <v>14.28667430848162</v>
       </c>
       <c r="C2">
-        <v>7.823913821314614</v>
+        <v>7.599377512838244</v>
       </c>
       <c r="D2">
-        <v>5.492776406114529</v>
+        <v>5.535840491179089</v>
       </c>
       <c r="E2">
-        <v>9.054212960474938</v>
+        <v>8.883216735277673</v>
       </c>
       <c r="F2">
-        <v>16.90284116642607</v>
+        <v>16.46965849272131</v>
       </c>
       <c r="G2">
-        <v>20.5637954911226</v>
+        <v>19.17837157098231</v>
       </c>
       <c r="H2">
-        <v>1.875599980173999</v>
+        <v>1.798567191607618</v>
       </c>
       <c r="J2">
-        <v>8.752061377253623</v>
+        <v>9.016290042217474</v>
       </c>
       <c r="K2">
-        <v>14.30169302146772</v>
+        <v>13.82520266635935</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.77435367591447</v>
       </c>
       <c r="M2">
-        <v>11.95621459858471</v>
+        <v>8.665336023980576</v>
       </c>
       <c r="N2">
-        <v>7.432917700455242</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.03434806732318</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.528232088568419</v>
       </c>
       <c r="Q2">
-        <v>13.96968808090043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.62615378369275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.41017023300064</v>
+        <v>13.40024735215636</v>
       </c>
       <c r="C3">
-        <v>7.742750630454666</v>
+        <v>7.441304951965484</v>
       </c>
       <c r="D3">
-        <v>5.273879253083277</v>
+        <v>5.296902486032593</v>
       </c>
       <c r="E3">
-        <v>8.823777478758119</v>
+        <v>8.675576138320162</v>
       </c>
       <c r="F3">
-        <v>16.7296303099757</v>
+        <v>16.33582434145599</v>
       </c>
       <c r="G3">
-        <v>20.44402528319098</v>
+        <v>19.15431613437883</v>
       </c>
       <c r="H3">
-        <v>2.066408510808058</v>
+        <v>1.974984304145047</v>
       </c>
       <c r="J3">
-        <v>8.816810304464655</v>
+        <v>9.055220036730201</v>
       </c>
       <c r="K3">
-        <v>14.44011661006107</v>
+        <v>13.97984247594609</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.94992344557326</v>
       </c>
       <c r="M3">
-        <v>11.35234660289562</v>
+        <v>8.748857102784132</v>
       </c>
       <c r="N3">
-        <v>7.155420215394812</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.41858358101478</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.25529401893176</v>
       </c>
       <c r="Q3">
-        <v>14.02818840501879</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.70672273702482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.81523848290806</v>
+        <v>12.82384954130119</v>
       </c>
       <c r="C4">
-        <v>7.692055858271325</v>
+        <v>7.343008921587526</v>
       </c>
       <c r="D4">
-        <v>5.133893423993905</v>
+        <v>5.144043919176408</v>
       </c>
       <c r="E4">
-        <v>8.678893665920988</v>
+        <v>8.544874696230236</v>
       </c>
       <c r="F4">
-        <v>16.63485889235095</v>
+        <v>16.26378542321001</v>
       </c>
       <c r="G4">
-        <v>20.38876524263517</v>
+        <v>19.15887035465468</v>
       </c>
       <c r="H4">
-        <v>2.187812906935386</v>
+        <v>2.087273416530236</v>
       </c>
       <c r="J4">
-        <v>8.860379075222417</v>
+        <v>9.081236309581254</v>
       </c>
       <c r="K4">
-        <v>14.5322221335836</v>
+        <v>14.08040021702351</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.06257218379156</v>
       </c>
       <c r="M4">
-        <v>10.96380772559367</v>
+        <v>8.820522226515267</v>
       </c>
       <c r="N4">
-        <v>6.979291967876771</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.02249704305964</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.082434866537918</v>
       </c>
       <c r="Q4">
-        <v>14.07281684625521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.76354840308935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.56439329351745</v>
+        <v>12.58089936658434</v>
       </c>
       <c r="C5">
-        <v>7.671186913345797</v>
+        <v>7.302679020845321</v>
       </c>
       <c r="D5">
-        <v>5.075487910915955</v>
+        <v>5.080258536635938</v>
       </c>
       <c r="E5">
-        <v>8.619043716277035</v>
+        <v>8.490841466502911</v>
       </c>
       <c r="F5">
-        <v>16.59911861043945</v>
+        <v>16.23693132971476</v>
       </c>
       <c r="G5">
-        <v>20.37071147769155</v>
+        <v>19.16538387193183</v>
       </c>
       <c r="H5">
-        <v>2.238367675197733</v>
+        <v>2.134041660069339</v>
       </c>
       <c r="J5">
-        <v>8.879068574464307</v>
+        <v>9.092360158258325</v>
       </c>
       <c r="K5">
-        <v>14.5714930014518</v>
+        <v>14.12275453729674</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.10970949537518</v>
       </c>
       <c r="M5">
-        <v>10.8011124094413</v>
+        <v>8.854703570128247</v>
       </c>
       <c r="N5">
-        <v>6.906143319009179</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.85667676049396</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.010741897632447</v>
       </c>
       <c r="Q5">
-        <v>14.09311962584366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.78849103042079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.52223311981006</v>
+        <v>12.54007134038246</v>
       </c>
       <c r="C6">
-        <v>7.667709111300534</v>
+        <v>7.295966900631759</v>
       </c>
       <c r="D6">
-        <v>5.065708965287312</v>
+        <v>5.069578453552291</v>
       </c>
       <c r="E6">
-        <v>8.609058222597012</v>
+        <v>8.481823791707974</v>
       </c>
       <c r="F6">
-        <v>16.59335679075821</v>
+        <v>16.2326218898203</v>
       </c>
       <c r="G6">
-        <v>20.36797930500412</v>
+        <v>19.16674073381881</v>
       </c>
       <c r="H6">
-        <v>2.246827963234992</v>
+        <v>2.14186879906569</v>
       </c>
       <c r="J6">
-        <v>8.882227739660575</v>
+        <v>9.094238526742684</v>
       </c>
       <c r="K6">
-        <v>14.57811736751218</v>
+        <v>14.12986961138661</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.11761139766655</v>
       </c>
       <c r="M6">
-        <v>10.77383693671914</v>
+        <v>8.860675380557138</v>
       </c>
       <c r="N6">
-        <v>6.893916189032264</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.82887980560639</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.998764098631502</v>
       </c>
       <c r="Q6">
-        <v>14.09661658082891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.79273875522314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.81188952563932</v>
+        <v>12.82127230442233</v>
       </c>
       <c r="C7">
-        <v>7.691775256310436</v>
+        <v>7.3401319606018</v>
       </c>
       <c r="D7">
-        <v>5.133111191947936</v>
+        <v>5.14620843496527</v>
       </c>
       <c r="E7">
-        <v>8.678089720583463</v>
+        <v>8.544552267765757</v>
       </c>
       <c r="F7">
-        <v>16.63436527484678</v>
+        <v>16.25075937743615</v>
       </c>
       <c r="G7">
-        <v>20.38850386522388</v>
+        <v>19.22931135460622</v>
       </c>
       <c r="H7">
-        <v>2.188490309676045</v>
+        <v>2.088359049970178</v>
       </c>
       <c r="J7">
-        <v>8.860627373760297</v>
+        <v>9.051681756114641</v>
       </c>
       <c r="K7">
-        <v>14.53274478656427</v>
+        <v>14.07526428104087</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.05776417340589</v>
       </c>
       <c r="M7">
-        <v>10.96163107106619</v>
+        <v>8.817851719520307</v>
       </c>
       <c r="N7">
-        <v>6.978310928996753</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.01915089881876</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.080990047020391</v>
       </c>
       <c r="Q7">
-        <v>14.07308218399297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.75543624303451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.01628409204417</v>
+        <v>13.9897783576773</v>
       </c>
       <c r="C8">
-        <v>7.79611071860921</v>
+        <v>7.537503469955224</v>
       </c>
       <c r="D8">
-        <v>5.418483424396676</v>
+        <v>5.464412484238374</v>
       </c>
       <c r="E8">
-        <v>8.975489642398042</v>
+        <v>8.813734856076643</v>
       </c>
       <c r="F8">
-        <v>16.84069768146637</v>
+        <v>16.38002800449614</v>
       </c>
       <c r="G8">
-        <v>20.51862920332678</v>
+        <v>19.40009635789831</v>
       </c>
       <c r="H8">
-        <v>1.94051752423951</v>
+        <v>1.859986000898103</v>
       </c>
       <c r="J8">
-        <v>8.773580787050173</v>
+        <v>8.932692486398155</v>
       </c>
       <c r="K8">
-        <v>14.34791332656502</v>
+        <v>13.85863985158508</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.81762491887674</v>
       </c>
       <c r="M8">
-        <v>11.75174319387201</v>
+        <v>8.677582740333142</v>
       </c>
       <c r="N8">
-        <v>7.338467678435773</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.82237032112286</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.433763814180058</v>
       </c>
       <c r="Q8">
-        <v>13.988006759972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.62449836589411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.11331068811223</v>
+        <v>16.0236719018161</v>
       </c>
       <c r="C9">
-        <v>7.993651732376013</v>
+        <v>7.921710194043614</v>
       </c>
       <c r="D9">
-        <v>5.932201404048111</v>
+        <v>6.026533187757686</v>
       </c>
       <c r="E9">
-        <v>9.529937828411168</v>
+        <v>9.313181636874168</v>
       </c>
       <c r="F9">
-        <v>17.33822963087118</v>
+        <v>16.76228317807126</v>
       </c>
       <c r="G9">
-        <v>20.92412464327937</v>
+        <v>19.63597019254277</v>
       </c>
       <c r="H9">
-        <v>1.632051816372325</v>
+        <v>1.676829191826452</v>
       </c>
       <c r="J9">
-        <v>8.634262572545904</v>
+        <v>8.821354269514707</v>
       </c>
       <c r="K9">
-        <v>14.04435708844768</v>
+        <v>13.50062590267905</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.40453142347439</v>
       </c>
       <c r="M9">
-        <v>13.15665757208144</v>
+        <v>8.581154107231143</v>
       </c>
       <c r="N9">
-        <v>7.996534869011869</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.25475256472832</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.082611774384841</v>
       </c>
       <c r="Q9">
-        <v>13.89363056743328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.4597557422925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.47136362853362</v>
+        <v>17.3465693171398</v>
       </c>
       <c r="C10">
-        <v>8.175373943608951</v>
+        <v>8.226854664952308</v>
       </c>
       <c r="D10">
-        <v>6.301284560964336</v>
+        <v>6.44136276325473</v>
       </c>
       <c r="E10">
-        <v>9.75337972145538</v>
+        <v>9.506206892754001</v>
       </c>
       <c r="F10">
-        <v>17.66205742587678</v>
+        <v>16.93831913851986</v>
       </c>
       <c r="G10">
-        <v>21.1462935265905</v>
+        <v>20.1630956975571</v>
       </c>
       <c r="H10">
-        <v>1.93018560080384</v>
+        <v>1.949737117620392</v>
       </c>
       <c r="J10">
-        <v>8.525020350806717</v>
+        <v>8.568709108863375</v>
       </c>
       <c r="K10">
-        <v>13.79100475301275</v>
+        <v>13.17819057453861</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.0622493097383</v>
       </c>
       <c r="M10">
-        <v>14.11246234993274</v>
+        <v>8.539907169743991</v>
       </c>
       <c r="N10">
-        <v>8.318645766744369</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.2218972189126</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.396807908308556</v>
       </c>
       <c r="Q10">
-        <v>13.80201222382356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.27011852474855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.86594357726455</v>
+        <v>17.75644785716177</v>
       </c>
       <c r="C11">
-        <v>8.663932207334032</v>
+        <v>8.758473250521854</v>
       </c>
       <c r="D11">
-        <v>6.649455185239963</v>
+        <v>6.821290064648071</v>
       </c>
       <c r="E11">
-        <v>8.55188405469517</v>
+        <v>8.345859190525569</v>
       </c>
       <c r="F11">
-        <v>16.96028800341883</v>
+        <v>16.14699485127543</v>
       </c>
       <c r="G11">
-        <v>19.76628532810541</v>
+        <v>19.74149069986852</v>
       </c>
       <c r="H11">
-        <v>2.83163030635025</v>
+        <v>2.83826029573684</v>
       </c>
       <c r="J11">
-        <v>8.241387672070688</v>
+        <v>8.064733447626326</v>
       </c>
       <c r="K11">
-        <v>13.0947244926501</v>
+        <v>12.50774363672588</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.57391664278352</v>
       </c>
       <c r="M11">
-        <v>14.66077207878482</v>
+        <v>8.055459338053135</v>
       </c>
       <c r="N11">
-        <v>7.380097024233326</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.74954570480811</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.444231581177241</v>
       </c>
       <c r="Q11">
-        <v>13.15706705091039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.5828889877201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.92298364470246</v>
+        <v>17.83174540509681</v>
       </c>
       <c r="C12">
-        <v>9.099766063008772</v>
+        <v>9.192357432794807</v>
       </c>
       <c r="D12">
-        <v>6.872732594300541</v>
+        <v>7.052424246925957</v>
       </c>
       <c r="E12">
-        <v>7.690596269429101</v>
+        <v>7.525387785760051</v>
       </c>
       <c r="F12">
-        <v>16.28211223979999</v>
+        <v>15.47005198700377</v>
       </c>
       <c r="G12">
-        <v>18.53495941061222</v>
+        <v>18.98910422837225</v>
       </c>
       <c r="H12">
-        <v>4.114477594099649</v>
+        <v>4.117891831727552</v>
       </c>
       <c r="J12">
-        <v>8.024688580994178</v>
+        <v>7.826541961942506</v>
       </c>
       <c r="K12">
-        <v>12.58108657230357</v>
+        <v>12.05716777500668</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.28233661678498</v>
       </c>
       <c r="M12">
-        <v>14.93251068048057</v>
+        <v>7.672167602081551</v>
       </c>
       <c r="N12">
-        <v>6.566998998807621</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.00387936093417</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.621806809460713</v>
       </c>
       <c r="Q12">
-        <v>12.62904570666527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.07568818725158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.72589692382252</v>
+        <v>17.65533999920548</v>
       </c>
       <c r="C13">
-        <v>9.512063768818784</v>
+        <v>9.58115352401783</v>
       </c>
       <c r="D13">
-        <v>7.017570690565857</v>
+        <v>7.17974755732064</v>
       </c>
       <c r="E13">
-        <v>7.102243690954337</v>
+        <v>6.979327179305134</v>
       </c>
       <c r="F13">
-        <v>15.57146005688108</v>
+        <v>14.85936043911864</v>
       </c>
       <c r="G13">
-        <v>17.33499063443381</v>
+        <v>17.74462431691408</v>
       </c>
       <c r="H13">
-        <v>5.453857574382051</v>
+        <v>5.457632339893218</v>
       </c>
       <c r="J13">
-        <v>7.847329706760314</v>
+        <v>7.759842918562841</v>
       </c>
       <c r="K13">
-        <v>12.18403693431715</v>
+        <v>11.75624035547535</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.10702081622562</v>
       </c>
       <c r="M13">
-        <v>15.01467264657371</v>
+        <v>7.366446295170769</v>
       </c>
       <c r="N13">
-        <v>5.810329439487438</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.0717296348401</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.86018579388428</v>
       </c>
       <c r="Q13">
-        <v>12.16062472819372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.69208932086049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.47025390989252</v>
+        <v>17.41558544072078</v>
       </c>
       <c r="C14">
-        <v>9.793564667860814</v>
+        <v>9.836967201868495</v>
       </c>
       <c r="D14">
-        <v>7.085065945232534</v>
+        <v>7.223244687949496</v>
       </c>
       <c r="E14">
-        <v>6.889818125201058</v>
+        <v>6.796069960096136</v>
       </c>
       <c r="F14">
-        <v>15.05854662594094</v>
+        <v>14.45815466558086</v>
       </c>
       <c r="G14">
-        <v>16.51587057055788</v>
+        <v>16.67252844666938</v>
       </c>
       <c r="H14">
-        <v>6.462808499501227</v>
+        <v>6.45922112879694</v>
       </c>
       <c r="J14">
-        <v>7.742980179495156</v>
+        <v>7.771421302417646</v>
       </c>
       <c r="K14">
-        <v>11.96882773088014</v>
+        <v>11.61477053887221</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.03013755411602</v>
       </c>
       <c r="M14">
-        <v>14.98753185558326</v>
+        <v>7.197443955638207</v>
       </c>
       <c r="N14">
-        <v>5.332425366154518</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.03567602797665</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.381095057723004</v>
       </c>
       <c r="Q14">
-        <v>11.8649610769254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.479020779239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.35241978298666</v>
+        <v>17.30232689162466</v>
       </c>
       <c r="C15">
-        <v>9.849413504843815</v>
+        <v>9.884448953358632</v>
       </c>
       <c r="D15">
-        <v>7.084295198090344</v>
+        <v>7.211629024122774</v>
       </c>
       <c r="E15">
-        <v>6.866908724244163</v>
+        <v>6.780417323609949</v>
       </c>
       <c r="F15">
-        <v>14.9292005466849</v>
+        <v>14.37345217261828</v>
       </c>
       <c r="G15">
-        <v>16.32765601013749</v>
+        <v>16.33360332026993</v>
       </c>
       <c r="H15">
-        <v>6.700920851855015</v>
+        <v>6.696844226567751</v>
       </c>
       <c r="J15">
-        <v>7.726320341807812</v>
+        <v>7.799832119016624</v>
       </c>
       <c r="K15">
-        <v>11.93936446049505</v>
+        <v>11.60608837817128</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.02722359289511</v>
       </c>
       <c r="M15">
-        <v>14.93974337042592</v>
+        <v>7.173634632828609</v>
       </c>
       <c r="N15">
-        <v>5.223226975783763</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.98628307378167</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.272652827292524</v>
       </c>
       <c r="Q15">
-        <v>11.80705733374259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.45073692147133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.82290807538445</v>
+        <v>16.77979205823963</v>
       </c>
       <c r="C16">
-        <v>9.685217913943848</v>
+        <v>9.702565010118413</v>
       </c>
       <c r="D16">
-        <v>6.90967123043289</v>
+        <v>6.995475587414295</v>
       </c>
       <c r="E16">
-        <v>6.869121634890016</v>
+        <v>6.786965201552149</v>
       </c>
       <c r="F16">
-        <v>14.91365854800986</v>
+        <v>14.50204531712581</v>
       </c>
       <c r="G16">
-        <v>16.45790344086135</v>
+        <v>15.75240246109651</v>
       </c>
       <c r="H16">
-        <v>6.488119531578479</v>
+        <v>6.480549744379835</v>
       </c>
       <c r="J16">
-        <v>7.810182209484346</v>
+        <v>8.052689709461205</v>
       </c>
       <c r="K16">
-        <v>12.13595602235614</v>
+        <v>11.832641048034</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.17312138011047</v>
       </c>
       <c r="M16">
-        <v>14.5357158273808</v>
+        <v>7.318907285078152</v>
       </c>
       <c r="N16">
-        <v>5.210426742407732</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.58725982300018</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.269149995194378</v>
       </c>
       <c r="Q16">
-        <v>11.94316338921444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.66817506214566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.55061477411506</v>
+        <v>16.50495879865469</v>
       </c>
       <c r="C17">
-        <v>9.403075172059184</v>
+        <v>9.41512564717514</v>
       </c>
       <c r="D17">
-        <v>6.735792813006183</v>
+        <v>6.807441249372614</v>
       </c>
       <c r="E17">
-        <v>6.949338523459122</v>
+        <v>6.854459502648064</v>
       </c>
       <c r="F17">
-        <v>15.18029470447946</v>
+        <v>14.80358305137941</v>
       </c>
       <c r="G17">
-        <v>16.99421568573699</v>
+        <v>15.97431736654623</v>
       </c>
       <c r="H17">
-        <v>5.743915004547997</v>
+        <v>5.733195597364777</v>
       </c>
       <c r="J17">
-        <v>7.929283189533416</v>
+        <v>8.240730261975298</v>
       </c>
       <c r="K17">
-        <v>12.39571004230559</v>
+        <v>12.07939915702589</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.33853871785677</v>
       </c>
       <c r="M17">
-        <v>14.23451353678442</v>
+        <v>7.50639389777522</v>
       </c>
       <c r="N17">
-        <v>5.444452733511537</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.29360814478332</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.510071373239917</v>
       </c>
       <c r="Q17">
-        <v>12.2027334325441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.94061954944513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.47748416708021</v>
+        <v>16.4193290076506</v>
       </c>
       <c r="C18">
-        <v>9.009734556458538</v>
+        <v>9.026362357827292</v>
       </c>
       <c r="D18">
-        <v>6.546226435683258</v>
+        <v>6.619526728020683</v>
       </c>
       <c r="E18">
-        <v>7.290283396401332</v>
+        <v>7.164509327201296</v>
       </c>
       <c r="F18">
-        <v>15.71343509004624</v>
+        <v>15.30843009894263</v>
       </c>
       <c r="G18">
-        <v>17.94030690117598</v>
+        <v>16.73598555640602</v>
       </c>
       <c r="H18">
-        <v>4.475714315217208</v>
+        <v>4.461121605038791</v>
       </c>
       <c r="J18">
-        <v>8.093571471463033</v>
+        <v>8.419261143041881</v>
       </c>
       <c r="K18">
-        <v>12.75662013761765</v>
+        <v>12.39564184277348</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.55920810182004</v>
       </c>
       <c r="M18">
-        <v>13.99394259335577</v>
+        <v>7.762419309327423</v>
       </c>
       <c r="N18">
-        <v>5.983052347644191</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.06518897798568</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.054571436867788</v>
       </c>
       <c r="Q18">
-        <v>12.60092365304891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.31088600732655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.57192596319558</v>
+        <v>16.49375706778534</v>
       </c>
       <c r="C19">
-        <v>8.592771311402982</v>
+        <v>8.613746667171714</v>
       </c>
       <c r="D19">
-        <v>6.362487974359097</v>
+        <v>6.446829695062909</v>
       </c>
       <c r="E19">
-        <v>8.043045174075514</v>
+        <v>7.8735381703537</v>
       </c>
       <c r="F19">
-        <v>16.41804290196238</v>
+        <v>15.94616137730329</v>
       </c>
       <c r="G19">
-        <v>19.15729980538845</v>
+        <v>17.82121396270432</v>
       </c>
       <c r="H19">
-        <v>2.955340412505024</v>
+        <v>2.968257561005512</v>
       </c>
       <c r="J19">
-        <v>8.286071469151272</v>
+        <v>8.59371331512868</v>
       </c>
       <c r="K19">
-        <v>13.1999757550134</v>
+        <v>12.76990943083733</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.82480174164926</v>
       </c>
       <c r="M19">
-        <v>13.82501290371285</v>
+        <v>8.07518944535351</v>
       </c>
       <c r="N19">
-        <v>6.793781690769856</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.91148415501979</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.870482140075358</v>
       </c>
       <c r="Q19">
-        <v>13.0908796196167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.74635243764712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.12429700050194</v>
+        <v>17.00668756866105</v>
       </c>
       <c r="C20">
-        <v>8.129546441858349</v>
+        <v>8.157137364906657</v>
       </c>
       <c r="D20">
-        <v>6.207510078624186</v>
+        <v>6.326370969563932</v>
       </c>
       <c r="E20">
-        <v>9.688004574640754</v>
+        <v>9.447297912007869</v>
       </c>
       <c r="F20">
-        <v>17.56856104243612</v>
+        <v>16.92679121920132</v>
       </c>
       <c r="G20">
-        <v>21.07319600916991</v>
+        <v>19.76025326606111</v>
       </c>
       <c r="H20">
-        <v>1.851125322047572</v>
+        <v>1.87843991466527</v>
       </c>
       <c r="J20">
-        <v>8.551070621801133</v>
+        <v>8.730686277508019</v>
       </c>
       <c r="K20">
-        <v>13.85180310060162</v>
+        <v>13.2779200848487</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.16139445564973</v>
       </c>
       <c r="M20">
-        <v>13.86859724341944</v>
+        <v>8.559264786013916</v>
       </c>
       <c r="N20">
-        <v>8.229745368485496</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.97817001750927</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.311222477716342</v>
       </c>
       <c r="Q20">
-        <v>13.8195332404448</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.34397843916859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.1507793007706</v>
+        <v>18.01285876303371</v>
       </c>
       <c r="C21">
-        <v>8.203942467771821</v>
+        <v>8.278973424139938</v>
       </c>
       <c r="D21">
-        <v>6.447644858929066</v>
+        <v>6.651458444864685</v>
       </c>
       <c r="E21">
-        <v>10.10788329743164</v>
+        <v>9.845163584179405</v>
       </c>
       <c r="F21">
-        <v>17.98905395433578</v>
+        <v>16.99310194813288</v>
       </c>
       <c r="G21">
-        <v>21.5453374834546</v>
+        <v>21.78470365233254</v>
       </c>
       <c r="H21">
-        <v>2.088299114662642</v>
+        <v>2.090036806956403</v>
       </c>
       <c r="J21">
-        <v>8.517109854663117</v>
+        <v>8.116959497608107</v>
       </c>
       <c r="K21">
-        <v>13.77907918554841</v>
+        <v>13.02462883182283</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.90055989061976</v>
       </c>
       <c r="M21">
-        <v>14.54846268541221</v>
+        <v>8.543667597469074</v>
       </c>
       <c r="N21">
-        <v>8.666736330598823</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.65362713291318</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.736954585452873</v>
       </c>
       <c r="Q21">
-        <v>13.87609241048456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.15016615710907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.78139376507271</v>
+        <v>18.63308021070238</v>
       </c>
       <c r="C22">
-        <v>8.272533657884102</v>
+        <v>8.377394803240433</v>
       </c>
       <c r="D22">
-        <v>6.609838858166407</v>
+        <v>6.87030728899351</v>
       </c>
       <c r="E22">
-        <v>10.29375760260754</v>
+        <v>10.02158345528652</v>
       </c>
       <c r="F22">
-        <v>18.22349330885787</v>
+        <v>16.98459131985855</v>
       </c>
       <c r="G22">
-        <v>21.78417605583319</v>
+        <v>23.17212924422184</v>
       </c>
       <c r="H22">
-        <v>2.23499394668074</v>
+        <v>2.220653636851539</v>
       </c>
       <c r="J22">
-        <v>8.485152587041446</v>
+        <v>7.761167845699592</v>
       </c>
       <c r="K22">
-        <v>13.70441254151399</v>
+        <v>12.82622577406539</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.71372753865461</v>
       </c>
       <c r="M22">
-        <v>14.98343344286606</v>
+        <v>8.514648823897396</v>
       </c>
       <c r="N22">
-        <v>8.879328497283383</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.08410274727192</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.941948681177726</v>
       </c>
       <c r="Q22">
-        <v>13.88708477317011</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.98628864182343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.44744125062897</v>
+        <v>18.30322831079581</v>
       </c>
       <c r="C23">
-        <v>8.236008147671068</v>
+        <v>8.330395614884379</v>
       </c>
       <c r="D23">
-        <v>6.523804373035938</v>
+        <v>6.747428083069656</v>
       </c>
       <c r="E23">
-        <v>10.19493492103027</v>
+        <v>9.92625107469507</v>
       </c>
       <c r="F23">
-        <v>18.09741656946819</v>
+        <v>17.01940125067082</v>
       </c>
       <c r="G23">
-        <v>21.6549302330203</v>
+        <v>22.23774298234384</v>
       </c>
       <c r="H23">
-        <v>2.156981181451424</v>
+        <v>2.15189401172629</v>
       </c>
       <c r="J23">
-        <v>8.501802035228636</v>
+        <v>7.991522339290036</v>
       </c>
       <c r="K23">
-        <v>13.74346780247963</v>
+        <v>12.94645281310273</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.82175639517169</v>
       </c>
       <c r="M23">
-        <v>14.75286707776962</v>
+        <v>8.54245551320019</v>
       </c>
       <c r="N23">
-        <v>8.76646756395701</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.85798613185627</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.834015885458349</v>
       </c>
       <c r="Q23">
-        <v>13.88024999483349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.09533827264315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.12496484106214</v>
+        <v>17.00542920197549</v>
       </c>
       <c r="C24">
-        <v>8.095871175951515</v>
+        <v>8.119522596836351</v>
       </c>
       <c r="D24">
-        <v>6.186377139350125</v>
+        <v>6.305649598539671</v>
       </c>
       <c r="E24">
-        <v>9.812418713206505</v>
+        <v>9.567603289958186</v>
       </c>
       <c r="F24">
-        <v>17.64090144488662</v>
+        <v>16.99414928736919</v>
       </c>
       <c r="G24">
-        <v>21.20404415672876</v>
+        <v>19.86696110685321</v>
       </c>
       <c r="H24">
-        <v>1.855247400937929</v>
+        <v>1.882597085319429</v>
       </c>
       <c r="J24">
-        <v>8.573590300710396</v>
+        <v>8.75470401121259</v>
       </c>
       <c r="K24">
-        <v>13.90839732921192</v>
+        <v>13.32698737110947</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.19726679749205</v>
       </c>
       <c r="M24">
-        <v>13.84492496056711</v>
+        <v>8.598144020585231</v>
       </c>
       <c r="N24">
-        <v>8.325933371049874</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.95598176126253</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.408116168328087</v>
       </c>
       <c r="Q24">
-        <v>13.87514179070256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.39482341477574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.57426615686404</v>
+        <v>15.49992872841272</v>
       </c>
       <c r="C25">
-        <v>7.940997690055354</v>
+        <v>7.822402940560844</v>
       </c>
       <c r="D25">
-        <v>5.79834172641837</v>
+        <v>5.87621379601742</v>
       </c>
       <c r="E25">
-        <v>9.383260430374992</v>
+        <v>9.180496470203229</v>
       </c>
       <c r="F25">
-        <v>17.19356851636764</v>
+        <v>16.66711913404014</v>
       </c>
       <c r="G25">
-        <v>20.79763267112033</v>
+        <v>19.45403581658289</v>
       </c>
       <c r="H25">
-        <v>1.606466408457502</v>
+        <v>1.570019806445465</v>
       </c>
       <c r="J25">
-        <v>8.668428336557159</v>
+        <v>8.890277180310008</v>
       </c>
       <c r="K25">
-        <v>14.11981199614035</v>
+        <v>13.6002460958298</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.51844813928047</v>
       </c>
       <c r="M25">
-        <v>12.7924876087685</v>
+        <v>8.594705361973494</v>
       </c>
       <c r="N25">
-        <v>7.824004609755251</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.8848081276903</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.912823694775202</v>
       </c>
       <c r="Q25">
-        <v>13.91092665419269</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.50921919217543</v>
       </c>
     </row>
   </sheetData>
